--- a/pred_ohlcv/54_21/2020-01-24 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 PPT ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>43742.5043</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>40790.5644</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>49449.12300000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>57682.1695</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>54957.1575</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>54957.1575</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>60531.4929</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>65518.58199999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>62401.4183</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>63010.4172</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>49334.38759999999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>49391.72869999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>28289.56739999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>29981.22699999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>29981.22699999999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>23475.74639999999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>23475.74639999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 PPT ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>43742.5043</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>40790.5644</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>49449.12300000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>57682.1695</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>54957.1575</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>54957.1575</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>60531.4929</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>65518.58199999999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>62401.4183</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>49334.38759999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>49391.72869999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>28289.56739999999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>29981.22699999999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>29981.22699999999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>23475.74639999999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>23475.74639999999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
